--- a/question_labels.xlsx
+++ b/question_labels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tilburgu-my.sharepoint.com/personal/a_bouma_tilburguniversity_edu/Documents/Documents/PhD/1. Survey Project/Simulation_Questionnaire/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="923" documentId="8_{F9507341-BF3F-435D-81C9-5606DA4D0EB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02C7B898-1ECE-49DD-8FCA-73061256EF85}"/>
+  <xr:revisionPtr revIDLastSave="941" documentId="8_{F9507341-BF3F-435D-81C9-5606DA4D0EB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A229175D-EB4B-46F8-83BC-851E19655B9E}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="330" windowWidth="29040" windowHeight="15840" xr2:uid="{6D91A9ED-2D46-4971-9230-D168DC077FA4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6D91A9ED-2D46-4971-9230-D168DC077FA4}"/>
   </bookViews>
   <sheets>
     <sheet name="codebook" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1996" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2008" uniqueCount="544">
   <si>
     <t>question_code</t>
   </si>
@@ -2194,6 +2194,24 @@
   </si>
   <si>
     <t>Code is complete</t>
+  </si>
+  <si>
+    <t>Q18b_10</t>
+  </si>
+  <si>
+    <t>Q18b_11_NEW</t>
+  </si>
+  <si>
+    <t>Q18b_12_NEW</t>
+  </si>
+  <si>
+    <t>Q18b_13_NEW</t>
+  </si>
+  <si>
+    <t>Q16b_16_NEW</t>
+  </si>
+  <si>
+    <t>Q16b_17_NEW</t>
   </si>
 </sst>
 </file>
@@ -2614,10 +2632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE714E73-63B3-4E5A-95F2-5FBCE060102F}">
-  <dimension ref="A1:K234"/>
+  <dimension ref="A1:K236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B198" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G221" sqref="G221"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H187" sqref="H187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6690,60 +6708,60 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C141">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D141" t="s">
-        <v>131</v>
+        <v>542</v>
       </c>
       <c r="E141" t="s">
-        <v>131</v>
+        <v>223</v>
       </c>
       <c r="F141" s="7">
         <v>1</v>
       </c>
       <c r="G141" s="7" t="s">
-        <v>327</v>
+        <v>466</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>349</v>
+        <v>438</v>
       </c>
       <c r="I141">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C142">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D142" t="s">
-        <v>131</v>
+        <v>543</v>
       </c>
       <c r="E142" t="s">
-        <v>131</v>
+        <v>223</v>
       </c>
       <c r="F142" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G142" s="7" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>350</v>
+        <v>440</v>
       </c>
       <c r="I142">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
@@ -6763,74 +6781,74 @@
         <v>131</v>
       </c>
       <c r="F143" s="7">
+        <v>1</v>
+      </c>
+      <c r="G143" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="I143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="C144">
+        <v>22</v>
+      </c>
+      <c r="D144" t="s">
+        <v>131</v>
+      </c>
+      <c r="E144" t="s">
+        <v>131</v>
+      </c>
+      <c r="F144" s="7">
+        <v>2</v>
+      </c>
+      <c r="G144" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="I144">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="C145">
+        <v>22</v>
+      </c>
+      <c r="D145" t="s">
+        <v>131</v>
+      </c>
+      <c r="E145" t="s">
+        <v>131</v>
+      </c>
+      <c r="F145" s="7">
         <v>3</v>
       </c>
-      <c r="G143" s="7" t="s">
+      <c r="G145" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="H143" t="s">
+      <c r="H145" t="s">
         <v>351</v>
       </c>
-      <c r="I143">
+      <c r="I145">
         <v>3</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A144" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="B144" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="C144">
-        <v>23</v>
-      </c>
-      <c r="D144" t="s">
-        <v>132</v>
-      </c>
-      <c r="E144" t="s">
-        <v>224</v>
-      </c>
-      <c r="F144" s="7">
-        <v>1</v>
-      </c>
-      <c r="G144" s="7" t="s">
-        <v>517</v>
-      </c>
-      <c r="H144" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="I144">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A145" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="B145" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="C145">
-        <v>23</v>
-      </c>
-      <c r="D145" t="s">
-        <v>133</v>
-      </c>
-      <c r="E145" t="s">
-        <v>224</v>
-      </c>
-      <c r="F145" s="7">
-        <v>1</v>
-      </c>
-      <c r="G145" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="H145" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="I145">
-        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
@@ -6844,7 +6862,7 @@
         <v>23</v>
       </c>
       <c r="D146" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E146" t="s">
         <v>224</v>
@@ -6853,13 +6871,13 @@
         <v>1</v>
       </c>
       <c r="G146" s="7" t="s">
-        <v>499</v>
+        <v>517</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="I146">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
@@ -6873,7 +6891,7 @@
         <v>23</v>
       </c>
       <c r="D147" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E147" t="s">
         <v>224</v>
@@ -6882,13 +6900,13 @@
         <v>1</v>
       </c>
       <c r="G147" s="7" t="s">
-        <v>453</v>
+        <v>513</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="I147">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
@@ -6902,7 +6920,7 @@
         <v>23</v>
       </c>
       <c r="D148" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E148" t="s">
         <v>224</v>
@@ -6911,13 +6929,13 @@
         <v>1</v>
       </c>
       <c r="G148" s="7" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="I148">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
@@ -6931,7 +6949,7 @@
         <v>23</v>
       </c>
       <c r="D149" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E149" t="s">
         <v>224</v>
@@ -6940,13 +6958,13 @@
         <v>1</v>
       </c>
       <c r="G149" s="7" t="s">
-        <v>522</v>
+        <v>453</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="I149">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
@@ -6960,7 +6978,7 @@
         <v>23</v>
       </c>
       <c r="D150" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E150" t="s">
         <v>224</v>
@@ -6969,13 +6987,13 @@
         <v>1</v>
       </c>
       <c r="G150" s="7" t="s">
-        <v>520</v>
+        <v>501</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="I150">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
@@ -6989,7 +7007,7 @@
         <v>23</v>
       </c>
       <c r="D151" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E151" t="s">
         <v>224</v>
@@ -6998,13 +7016,13 @@
         <v>1</v>
       </c>
       <c r="G151" s="7" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="I151">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
@@ -7018,7 +7036,7 @@
         <v>23</v>
       </c>
       <c r="D152" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E152" t="s">
         <v>224</v>
@@ -7027,13 +7045,13 @@
         <v>1</v>
       </c>
       <c r="G152" s="7" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I152">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
@@ -7047,7 +7065,7 @@
         <v>23</v>
       </c>
       <c r="D153" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E153" t="s">
         <v>224</v>
@@ -7056,13 +7074,13 @@
         <v>1</v>
       </c>
       <c r="G153" s="7" t="s">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="I153">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
@@ -7076,7 +7094,7 @@
         <v>23</v>
       </c>
       <c r="D154" t="s">
-        <v>441</v>
+        <v>140</v>
       </c>
       <c r="E154" t="s">
         <v>224</v>
@@ -7085,13 +7103,13 @@
         <v>1</v>
       </c>
       <c r="G154" s="7" t="s">
-        <v>536</v>
+        <v>518</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>438</v>
+        <v>268</v>
       </c>
       <c r="I154">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
@@ -7105,7 +7123,7 @@
         <v>23</v>
       </c>
       <c r="D155" t="s">
-        <v>442</v>
+        <v>141</v>
       </c>
       <c r="E155" t="s">
         <v>224</v>
@@ -7114,13 +7132,13 @@
         <v>1</v>
       </c>
       <c r="G155" s="7" t="s">
-        <v>512</v>
+        <v>454</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>443</v>
+        <v>248</v>
       </c>
       <c r="I155">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
@@ -7134,7 +7152,7 @@
         <v>23</v>
       </c>
       <c r="D156" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="E156" t="s">
         <v>224</v>
@@ -7143,75 +7161,75 @@
         <v>1</v>
       </c>
       <c r="G156" s="7" t="s">
-        <v>521</v>
+        <v>536</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="I156">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A157" s="6"/>
+      <c r="A157" s="6" t="s">
+        <v>372</v>
+      </c>
       <c r="B157" s="4" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C157">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D157" t="s">
-        <v>143</v>
+        <v>442</v>
       </c>
       <c r="E157" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F157" s="7">
         <v>1</v>
       </c>
       <c r="G157" s="7" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>263</v>
+        <v>443</v>
       </c>
       <c r="I157">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C158">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D158" t="s">
-        <v>133</v>
+        <v>444</v>
       </c>
       <c r="E158" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F158" s="7">
         <v>1</v>
       </c>
       <c r="G158" s="7" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>264</v>
+        <v>445</v>
       </c>
       <c r="I158">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A159" s="6" t="s">
-        <v>373</v>
-      </c>
+      <c r="A159" s="6"/>
       <c r="B159" s="4" t="s">
         <v>422</v>
       </c>
@@ -7219,7 +7237,7 @@
         <v>24</v>
       </c>
       <c r="D159" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="E159" t="s">
         <v>225</v>
@@ -7228,13 +7246,13 @@
         <v>1</v>
       </c>
       <c r="G159" s="7" t="s">
-        <v>499</v>
+        <v>517</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="I159">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
@@ -7248,7 +7266,7 @@
         <v>24</v>
       </c>
       <c r="D160" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="E160" t="s">
         <v>225</v>
@@ -7257,13 +7275,13 @@
         <v>1</v>
       </c>
       <c r="G160" s="7" t="s">
-        <v>453</v>
+        <v>513</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="I160">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
@@ -7277,7 +7295,7 @@
         <v>24</v>
       </c>
       <c r="D161" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="E161" t="s">
         <v>225</v>
@@ -7286,13 +7304,13 @@
         <v>1</v>
       </c>
       <c r="G161" s="7" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="I161">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
@@ -7306,7 +7324,7 @@
         <v>24</v>
       </c>
       <c r="D162" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="E162" t="s">
         <v>225</v>
@@ -7315,13 +7333,13 @@
         <v>1</v>
       </c>
       <c r="G162" s="7" t="s">
-        <v>522</v>
+        <v>453</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="I162">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
@@ -7335,7 +7353,7 @@
         <v>24</v>
       </c>
       <c r="D163" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="E163" t="s">
         <v>225</v>
@@ -7344,13 +7362,13 @@
         <v>1</v>
       </c>
       <c r="G163" s="7" t="s">
-        <v>520</v>
+        <v>501</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="I163">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
@@ -7364,7 +7382,7 @@
         <v>24</v>
       </c>
       <c r="D164" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="E164" t="s">
         <v>225</v>
@@ -7373,16 +7391,16 @@
         <v>1</v>
       </c>
       <c r="G164" s="7" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="I164">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="6" t="s">
         <v>373</v>
       </c>
@@ -7393,7 +7411,7 @@
         <v>24</v>
       </c>
       <c r="D165" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="E165" t="s">
         <v>225</v>
@@ -7402,13 +7420,13 @@
         <v>1</v>
       </c>
       <c r="G165" s="7" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="I165">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
@@ -7422,7 +7440,7 @@
         <v>24</v>
       </c>
       <c r="D166" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="E166" t="s">
         <v>225</v>
@@ -7431,17 +7449,19 @@
         <v>1</v>
       </c>
       <c r="G166" s="7" t="s">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>248</v>
+        <v>270</v>
       </c>
       <c r="I166">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A167" s="6"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="6" t="s">
+        <v>373</v>
+      </c>
       <c r="B167" s="4" t="s">
         <v>422</v>
       </c>
@@ -7449,26 +7469,28 @@
         <v>24</v>
       </c>
       <c r="D167" t="s">
-        <v>441</v>
+        <v>151</v>
       </c>
       <c r="E167" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F167" s="7">
         <v>1</v>
       </c>
       <c r="G167" s="7" t="s">
-        <v>536</v>
+        <v>518</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>438</v>
+        <v>269</v>
       </c>
       <c r="I167">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A168" s="6"/>
+      <c r="A168" s="6" t="s">
+        <v>373</v>
+      </c>
       <c r="B168" s="4" t="s">
         <v>422</v>
       </c>
@@ -7476,22 +7498,22 @@
         <v>24</v>
       </c>
       <c r="D168" t="s">
-        <v>442</v>
+        <v>538</v>
       </c>
       <c r="E168" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F168" s="7">
         <v>1</v>
       </c>
       <c r="G168" s="7" t="s">
-        <v>512</v>
+        <v>454</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>443</v>
+        <v>248</v>
       </c>
       <c r="I168">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
@@ -7503,80 +7525,76 @@
         <v>24</v>
       </c>
       <c r="D169" t="s">
-        <v>444</v>
+        <v>539</v>
       </c>
       <c r="E169" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F169" s="7">
         <v>1</v>
       </c>
       <c r="G169" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="H169" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="I169">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A170" s="6"/>
+      <c r="B170" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="C170">
+        <v>24</v>
+      </c>
+      <c r="D170" t="s">
+        <v>540</v>
+      </c>
+      <c r="E170" t="s">
+        <v>225</v>
+      </c>
+      <c r="F170" s="7">
+        <v>1</v>
+      </c>
+      <c r="G170" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="H170" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="I170">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A171" s="6"/>
+      <c r="B171" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="C171">
+        <v>24</v>
+      </c>
+      <c r="D171" t="s">
+        <v>541</v>
+      </c>
+      <c r="E171" t="s">
+        <v>225</v>
+      </c>
+      <c r="F171" s="7">
+        <v>1</v>
+      </c>
+      <c r="G171" s="7" t="s">
         <v>521</v>
       </c>
-      <c r="H169" s="1" t="s">
+      <c r="H171" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="I169">
+      <c r="I171">
         <v>13</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A170" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="B170" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="C170">
-        <v>25</v>
-      </c>
-      <c r="D170" t="s">
-        <v>153</v>
-      </c>
-      <c r="E170" t="s">
-        <v>226</v>
-      </c>
-      <c r="F170" s="7">
-        <v>1</v>
-      </c>
-      <c r="G170" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="H170" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="I170">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A171" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="B171" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="C171">
-        <v>25</v>
-      </c>
-      <c r="D171" t="s">
-        <v>154</v>
-      </c>
-      <c r="E171" t="s">
-        <v>226</v>
-      </c>
-      <c r="F171" s="7">
-        <v>1</v>
-      </c>
-      <c r="G171" s="7" t="s">
-        <v>469</v>
-      </c>
-      <c r="H171" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="I171">
-        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
@@ -7590,7 +7608,7 @@
         <v>25</v>
       </c>
       <c r="D172" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E172" t="s">
         <v>226</v>
@@ -7599,13 +7617,13 @@
         <v>1</v>
       </c>
       <c r="G172" s="7" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I172">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
@@ -7619,7 +7637,7 @@
         <v>25</v>
       </c>
       <c r="D173" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E173" t="s">
         <v>226</v>
@@ -7628,13 +7646,13 @@
         <v>1</v>
       </c>
       <c r="G173" s="7" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="I173">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
@@ -7648,7 +7666,7 @@
         <v>25</v>
       </c>
       <c r="D174" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E174" t="s">
         <v>226</v>
@@ -7657,13 +7675,13 @@
         <v>1</v>
       </c>
       <c r="G174" s="7" t="s">
-        <v>534</v>
+        <v>470</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I174">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
@@ -7677,7 +7695,7 @@
         <v>25</v>
       </c>
       <c r="D175" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E175" t="s">
         <v>226</v>
@@ -7686,71 +7704,71 @@
         <v>1</v>
       </c>
       <c r="G175" s="7" t="s">
-        <v>454</v>
+        <v>471</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I175">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C176">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D176" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E176" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F176" s="7">
         <v>1</v>
       </c>
       <c r="G176" s="7" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="H176" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="I176">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C177">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D177" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E177" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F177" s="7">
         <v>1</v>
       </c>
       <c r="G177" s="7" t="s">
-        <v>535</v>
+        <v>454</v>
       </c>
       <c r="H177" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="I177">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
@@ -7764,7 +7782,7 @@
         <v>26</v>
       </c>
       <c r="D178" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E178" t="s">
         <v>227</v>
@@ -7773,13 +7791,13 @@
         <v>1</v>
       </c>
       <c r="G178" s="7" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I178">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
@@ -7793,7 +7811,7 @@
         <v>26</v>
       </c>
       <c r="D179" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E179" t="s">
         <v>227</v>
@@ -7802,13 +7820,13 @@
         <v>1</v>
       </c>
       <c r="G179" s="7" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="H179" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="I179">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
@@ -7822,7 +7840,7 @@
         <v>26</v>
       </c>
       <c r="D180" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E180" t="s">
         <v>227</v>
@@ -7831,13 +7849,13 @@
         <v>1</v>
       </c>
       <c r="G180" s="7" t="s">
-        <v>472</v>
+        <v>524</v>
       </c>
       <c r="H180" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="I180">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
@@ -7851,7 +7869,7 @@
         <v>26</v>
       </c>
       <c r="D181" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E181" t="s">
         <v>227</v>
@@ -7860,13 +7878,13 @@
         <v>1</v>
       </c>
       <c r="G181" s="7" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="I181">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
@@ -7880,7 +7898,7 @@
         <v>26</v>
       </c>
       <c r="D182" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E182" t="s">
         <v>227</v>
@@ -7889,13 +7907,13 @@
         <v>1</v>
       </c>
       <c r="G182" s="7" t="s">
-        <v>526</v>
+        <v>472</v>
       </c>
       <c r="H182" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I182">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
@@ -7909,7 +7927,7 @@
         <v>26</v>
       </c>
       <c r="D183" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E183" t="s">
         <v>227</v>
@@ -7918,13 +7936,13 @@
         <v>1</v>
       </c>
       <c r="G183" s="7" t="s">
-        <v>454</v>
+        <v>525</v>
       </c>
       <c r="H183" s="1" t="s">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="I183">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
@@ -7938,7 +7956,7 @@
         <v>26</v>
       </c>
       <c r="D184" t="s">
-        <v>446</v>
+        <v>166</v>
       </c>
       <c r="E184" t="s">
         <v>227</v>
@@ -7947,10 +7965,13 @@
         <v>1</v>
       </c>
       <c r="G184" s="7" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H184" s="1" t="s">
-        <v>447</v>
+        <v>283</v>
+      </c>
+      <c r="I184">
+        <v>7</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
@@ -7964,7 +7985,7 @@
         <v>26</v>
       </c>
       <c r="D185" t="s">
-        <v>448</v>
+        <v>167</v>
       </c>
       <c r="E185" t="s">
         <v>227</v>
@@ -7973,10 +7994,13 @@
         <v>1</v>
       </c>
       <c r="G185" s="7" t="s">
-        <v>473</v>
+        <v>454</v>
       </c>
       <c r="H185" s="1" t="s">
-        <v>449</v>
+        <v>248</v>
+      </c>
+      <c r="I185">
+        <v>8</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
@@ -7990,7 +8014,7 @@
         <v>26</v>
       </c>
       <c r="D186" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="E186" t="s">
         <v>227</v>
@@ -7999,94 +8023,97 @@
         <v>1</v>
       </c>
       <c r="G186" s="7" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H186" s="1" t="s">
-        <v>451</v>
+        <v>447</v>
+      </c>
+      <c r="I186">
+        <v>9</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C187">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D187" t="s">
-        <v>169</v>
+        <v>448</v>
       </c>
       <c r="E187" t="s">
-        <v>169</v>
+        <v>227</v>
       </c>
       <c r="F187" s="7">
         <v>1</v>
       </c>
       <c r="G187" s="7" t="s">
-        <v>326</v>
+        <v>473</v>
       </c>
       <c r="H187" s="1" t="s">
-        <v>326</v>
+        <v>449</v>
       </c>
       <c r="I187">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C188">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D188" t="s">
-        <v>169</v>
+        <v>450</v>
       </c>
       <c r="E188" t="s">
-        <v>169</v>
+        <v>227</v>
       </c>
       <c r="F188" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G188" s="7" t="s">
-        <v>327</v>
+        <v>529</v>
       </c>
       <c r="H188" s="1" t="s">
-        <v>327</v>
+        <v>451</v>
       </c>
       <c r="I188">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C189">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D189" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E189" t="s">
-        <v>228</v>
+        <v>169</v>
       </c>
       <c r="F189" s="7">
         <v>1</v>
       </c>
       <c r="G189" s="7" t="s">
-        <v>517</v>
+        <v>326</v>
       </c>
       <c r="H189" s="1" t="s">
-        <v>284</v>
+        <v>326</v>
       </c>
       <c r="I189">
         <v>1</v>
@@ -8094,28 +8121,28 @@
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C190">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D190" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E190" t="s">
-        <v>228</v>
+        <v>169</v>
       </c>
       <c r="F190" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G190" s="7" t="s">
-        <v>530</v>
+        <v>327</v>
       </c>
       <c r="H190" s="1" t="s">
-        <v>285</v>
+        <v>327</v>
       </c>
       <c r="I190">
         <v>2</v>
@@ -8132,7 +8159,7 @@
         <v>28</v>
       </c>
       <c r="D191" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E191" t="s">
         <v>228</v>
@@ -8141,13 +8168,13 @@
         <v>1</v>
       </c>
       <c r="G191" s="7" t="s">
-        <v>531</v>
+        <v>517</v>
       </c>
       <c r="H191" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I191">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
@@ -8161,7 +8188,7 @@
         <v>28</v>
       </c>
       <c r="D192" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E192" t="s">
         <v>228</v>
@@ -8170,13 +8197,13 @@
         <v>1</v>
       </c>
       <c r="G192" s="7" t="s">
-        <v>287</v>
+        <v>530</v>
       </c>
       <c r="H192" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="I192">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
@@ -8190,7 +8217,7 @@
         <v>28</v>
       </c>
       <c r="D193" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E193" t="s">
         <v>228</v>
@@ -8199,13 +8226,13 @@
         <v>1</v>
       </c>
       <c r="G193" s="7" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="H193" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I193">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
@@ -8219,7 +8246,7 @@
         <v>28</v>
       </c>
       <c r="D194" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E194" t="s">
         <v>228</v>
@@ -8228,13 +8255,13 @@
         <v>1</v>
       </c>
       <c r="G194" s="7" t="s">
-        <v>512</v>
+        <v>287</v>
       </c>
       <c r="H194" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="I194">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
@@ -8248,7 +8275,7 @@
         <v>28</v>
       </c>
       <c r="D195" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E195" t="s">
         <v>228</v>
@@ -8257,13 +8284,13 @@
         <v>1</v>
       </c>
       <c r="G195" s="7" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="H195" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="I195">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
@@ -8277,7 +8304,7 @@
         <v>28</v>
       </c>
       <c r="D196" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E196" t="s">
         <v>228</v>
@@ -8286,13 +8313,13 @@
         <v>1</v>
       </c>
       <c r="G196" s="7" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H196" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I196">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
@@ -8306,7 +8333,7 @@
         <v>28</v>
       </c>
       <c r="D197" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E197" t="s">
         <v>228</v>
@@ -8315,16 +8342,16 @@
         <v>1</v>
       </c>
       <c r="G197" s="7" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="H197" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="I197">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
         <v>377</v>
       </c>
@@ -8335,7 +8362,7 @@
         <v>28</v>
       </c>
       <c r="D198" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E198" t="s">
         <v>228</v>
@@ -8344,13 +8371,13 @@
         <v>1</v>
       </c>
       <c r="G198" s="7" t="s">
-        <v>533</v>
+        <v>513</v>
       </c>
       <c r="H198" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I198">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
@@ -8364,7 +8391,7 @@
         <v>28</v>
       </c>
       <c r="D199" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E199" t="s">
         <v>228</v>
@@ -8373,74 +8400,74 @@
         <v>1</v>
       </c>
       <c r="G199" s="7" t="s">
-        <v>454</v>
+        <v>526</v>
       </c>
       <c r="H199" s="1" t="s">
-        <v>248</v>
+        <v>292</v>
       </c>
       <c r="I199">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C200">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D200" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E200" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F200" s="7">
         <v>1</v>
       </c>
       <c r="G200" s="7" t="s">
-        <v>475</v>
+        <v>533</v>
       </c>
       <c r="H200" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I200">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C201">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D201" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E201" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F201" s="7">
         <v>1</v>
       </c>
       <c r="G201" s="7" t="s">
-        <v>476</v>
+        <v>454</v>
       </c>
       <c r="H201" s="1" t="s">
-        <v>295</v>
+        <v>248</v>
       </c>
       <c r="I201">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
         <v>378</v>
       </c>
@@ -8451,7 +8478,7 @@
         <v>29</v>
       </c>
       <c r="D202" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E202" t="s">
         <v>229</v>
@@ -8460,13 +8487,13 @@
         <v>1</v>
       </c>
       <c r="G202" s="7" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H202" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I202">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
@@ -8480,7 +8507,7 @@
         <v>29</v>
       </c>
       <c r="D203" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E203" t="s">
         <v>229</v>
@@ -8489,13 +8516,13 @@
         <v>1</v>
       </c>
       <c r="G203" s="7" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="H203" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I203">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
@@ -8509,7 +8536,7 @@
         <v>29</v>
       </c>
       <c r="D204" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E204" t="s">
         <v>229</v>
@@ -8518,71 +8545,71 @@
         <v>1</v>
       </c>
       <c r="G204" s="7" t="s">
-        <v>454</v>
+        <v>477</v>
       </c>
       <c r="H204" s="1" t="s">
-        <v>248</v>
+        <v>296</v>
       </c>
       <c r="I204">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C205">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D205" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E205" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F205" s="7">
         <v>1</v>
       </c>
       <c r="G205" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="H205" t="s">
-        <v>298</v>
+        <v>478</v>
+      </c>
+      <c r="H205" s="1" t="s">
+        <v>297</v>
       </c>
       <c r="I205">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C206">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D206" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E206" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F206" s="7">
         <v>1</v>
       </c>
       <c r="G206" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="H206" t="s">
-        <v>299</v>
+        <v>454</v>
+      </c>
+      <c r="H206" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="I206">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
@@ -8596,7 +8623,7 @@
         <v>30</v>
       </c>
       <c r="D207" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E207" t="s">
         <v>230</v>
@@ -8605,13 +8632,13 @@
         <v>1</v>
       </c>
       <c r="G207" s="7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H207" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I207">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
@@ -8625,7 +8652,7 @@
         <v>30</v>
       </c>
       <c r="D208" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E208" t="s">
         <v>230</v>
@@ -8634,13 +8661,13 @@
         <v>1</v>
       </c>
       <c r="G208" s="7" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="H208" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I208">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
@@ -8654,7 +8681,7 @@
         <v>30</v>
       </c>
       <c r="D209" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E209" t="s">
         <v>230</v>
@@ -8663,13 +8690,13 @@
         <v>1</v>
       </c>
       <c r="G209" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="H209" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I209">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
@@ -8683,7 +8710,7 @@
         <v>30</v>
       </c>
       <c r="D210" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E210" t="s">
         <v>230</v>
@@ -8692,13 +8719,13 @@
         <v>1</v>
       </c>
       <c r="G210" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="H210" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I210">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
@@ -8712,7 +8739,7 @@
         <v>30</v>
       </c>
       <c r="D211" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E211" t="s">
         <v>230</v>
@@ -8721,13 +8748,13 @@
         <v>1</v>
       </c>
       <c r="G211" s="7" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H211" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I211">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
@@ -8741,7 +8768,7 @@
         <v>30</v>
       </c>
       <c r="D212" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E212" t="s">
         <v>230</v>
@@ -8750,13 +8777,13 @@
         <v>1</v>
       </c>
       <c r="G212" s="7" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H212" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="I212">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
@@ -8770,7 +8797,7 @@
         <v>30</v>
       </c>
       <c r="D213" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E213" t="s">
         <v>230</v>
@@ -8779,13 +8806,13 @@
         <v>1</v>
       </c>
       <c r="G213" s="7" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H213" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="I213">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
@@ -8799,7 +8826,7 @@
         <v>30</v>
       </c>
       <c r="D214" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E214" t="s">
         <v>230</v>
@@ -8808,13 +8835,13 @@
         <v>1</v>
       </c>
       <c r="G214" s="7" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H214" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="I214">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
@@ -8828,7 +8855,7 @@
         <v>30</v>
       </c>
       <c r="D215" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E215" t="s">
         <v>230</v>
@@ -8837,13 +8864,13 @@
         <v>1</v>
       </c>
       <c r="G215" s="7" t="s">
-        <v>467</v>
+        <v>487</v>
       </c>
       <c r="H215" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="I215">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
@@ -8857,7 +8884,7 @@
         <v>30</v>
       </c>
       <c r="D216" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E216" t="s">
         <v>230</v>
@@ -8866,13 +8893,13 @@
         <v>1</v>
       </c>
       <c r="G216" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H216" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="I216">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
@@ -8886,7 +8913,7 @@
         <v>30</v>
       </c>
       <c r="D217" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E217" t="s">
         <v>230</v>
@@ -8895,71 +8922,71 @@
         <v>1</v>
       </c>
       <c r="G217" s="7" t="s">
-        <v>454</v>
+        <v>467</v>
       </c>
       <c r="H217" t="s">
-        <v>248</v>
+        <v>308</v>
       </c>
       <c r="I217">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C218">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D218" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E218" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F218" s="7">
         <v>1</v>
       </c>
       <c r="G218" s="7" t="s">
-        <v>490</v>
-      </c>
-      <c r="H218" s="1" t="s">
-        <v>310</v>
+        <v>489</v>
+      </c>
+      <c r="H218" t="s">
+        <v>309</v>
       </c>
       <c r="I218">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C219">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D219" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E219" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F219" s="7">
         <v>1</v>
       </c>
       <c r="G219" s="7" t="s">
-        <v>491</v>
-      </c>
-      <c r="H219" s="1" t="s">
-        <v>311</v>
+        <v>454</v>
+      </c>
+      <c r="H219" t="s">
+        <v>248</v>
       </c>
       <c r="I219">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
@@ -8973,7 +9000,7 @@
         <v>31</v>
       </c>
       <c r="D220" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E220" t="s">
         <v>231</v>
@@ -8982,13 +9009,13 @@
         <v>1</v>
       </c>
       <c r="G220" s="7" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="H220" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I220">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
@@ -9002,7 +9029,7 @@
         <v>31</v>
       </c>
       <c r="D221" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E221" t="s">
         <v>231</v>
@@ -9011,13 +9038,13 @@
         <v>1</v>
       </c>
       <c r="G221" s="7" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H221" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I221">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
@@ -9031,7 +9058,7 @@
         <v>31</v>
       </c>
       <c r="D222" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E222" t="s">
         <v>231</v>
@@ -9040,13 +9067,13 @@
         <v>1</v>
       </c>
       <c r="G222" s="7" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="H222" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I222">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
@@ -9060,7 +9087,7 @@
         <v>31</v>
       </c>
       <c r="D223" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E223" t="s">
         <v>231</v>
@@ -9069,16 +9096,16 @@
         <v>1</v>
       </c>
       <c r="G223" s="7" t="s">
-        <v>537</v>
+        <v>492</v>
       </c>
       <c r="H223" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I223">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="4" t="s">
         <v>380</v>
       </c>
@@ -9089,7 +9116,7 @@
         <v>31</v>
       </c>
       <c r="D224" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E224" t="s">
         <v>231</v>
@@ -9098,13 +9125,13 @@
         <v>1</v>
       </c>
       <c r="G224" s="7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H224" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="I224">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
@@ -9118,7 +9145,7 @@
         <v>31</v>
       </c>
       <c r="D225" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E225" t="s">
         <v>231</v>
@@ -9127,16 +9154,16 @@
         <v>1</v>
       </c>
       <c r="G225" s="7" t="s">
-        <v>498</v>
+        <v>537</v>
       </c>
       <c r="H225" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I225">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A226" s="4" t="s">
         <v>380</v>
       </c>
@@ -9147,7 +9174,7 @@
         <v>31</v>
       </c>
       <c r="D226" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E226" t="s">
         <v>231</v>
@@ -9156,13 +9183,13 @@
         <v>1</v>
       </c>
       <c r="G226" s="7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H226" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="I226">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
@@ -9176,7 +9203,7 @@
         <v>31</v>
       </c>
       <c r="D227" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E227" t="s">
         <v>231</v>
@@ -9185,16 +9212,16 @@
         <v>1</v>
       </c>
       <c r="G227" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="H227" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I227">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="4" t="s">
         <v>380</v>
       </c>
@@ -9205,7 +9232,7 @@
         <v>31</v>
       </c>
       <c r="D228" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E228" t="s">
         <v>231</v>
@@ -9214,13 +9241,13 @@
         <v>1</v>
       </c>
       <c r="G228" s="7" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="H228" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="I228">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
@@ -9234,7 +9261,7 @@
         <v>31</v>
       </c>
       <c r="D229" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E229" t="s">
         <v>231</v>
@@ -9243,109 +9270,167 @@
         <v>1</v>
       </c>
       <c r="G229" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="H229" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="I229">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A230" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="B230" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="C230">
+        <v>31</v>
+      </c>
+      <c r="D230" t="s">
+        <v>212</v>
+      </c>
+      <c r="E230" t="s">
+        <v>231</v>
+      </c>
+      <c r="F230" s="7">
+        <v>1</v>
+      </c>
+      <c r="G230" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="H230" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="I230">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A231" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="B231" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="C231">
+        <v>31</v>
+      </c>
+      <c r="D231" t="s">
+        <v>213</v>
+      </c>
+      <c r="E231" t="s">
+        <v>231</v>
+      </c>
+      <c r="F231" s="7">
+        <v>1</v>
+      </c>
+      <c r="G231" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="H229" s="1" t="s">
+      <c r="H231" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="I229">
+      <c r="I231">
         <v>12</v>
       </c>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
-        <v>384</v>
-      </c>
-      <c r="B230" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="C230">
-        <v>32</v>
-      </c>
-      <c r="D230" t="s">
-        <v>382</v>
-      </c>
-      <c r="E230" t="s">
-        <v>383</v>
-      </c>
-      <c r="F230" s="7"/>
-      <c r="G230" s="7"/>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
-        <v>392</v>
-      </c>
-      <c r="B231" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="C231">
-        <v>33</v>
-      </c>
-      <c r="D231" t="s">
-        <v>385</v>
-      </c>
-      <c r="E231" t="s">
-        <v>389</v>
-      </c>
-      <c r="F231" s="7"/>
-      <c r="G231" s="7"/>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C232">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D232" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="E232" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="F232" s="7"/>
       <c r="G232" s="7"/>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C233">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D233" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E233" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F233" s="7"/>
       <c r="G233" s="7"/>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C234">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D234" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E234" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="F234" s="7"/>
       <c r="G234" s="7"/>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>394</v>
+      </c>
+      <c r="B235" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="C235">
+        <v>35</v>
+      </c>
+      <c r="D235" t="s">
+        <v>387</v>
+      </c>
+      <c r="E235" t="s">
+        <v>391</v>
+      </c>
+      <c r="F235" s="7"/>
+      <c r="G235" s="7"/>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>395</v>
+      </c>
+      <c r="B236" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="C236">
+        <v>36</v>
+      </c>
+      <c r="D236" t="s">
+        <v>388</v>
+      </c>
+      <c r="E236" t="s">
+        <v>388</v>
+      </c>
+      <c r="F236" s="7"/>
+      <c r="G236" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
